--- a/Code/Results/Cases/Case_3_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_198/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.894667724900643</v>
+        <v>0.5909449888591212</v>
       </c>
       <c r="C2">
-        <v>0.5779864864500439</v>
+        <v>0.1858151788494524</v>
       </c>
       <c r="D2">
-        <v>0.01703720677624077</v>
+        <v>0.007537871369759586</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7598479994852028</v>
+        <v>0.5825610311031255</v>
       </c>
       <c r="G2">
-        <v>0.6842045740459639</v>
+        <v>0.4371995582342123</v>
       </c>
       <c r="H2">
-        <v>0.4002824521681134</v>
+        <v>0.5295738793486322</v>
       </c>
       <c r="I2">
-        <v>0.2998377044467873</v>
+        <v>0.3845158688133452</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>2.823073750792233</v>
+        <v>0.8948114962484226</v>
       </c>
       <c r="N2">
-        <v>0.4393426266164318</v>
+        <v>0.9364384619600088</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.649245667310083</v>
+        <v>0.51659482688612</v>
       </c>
       <c r="C3">
-        <v>0.5062245303280406</v>
+        <v>0.1635262707360425</v>
       </c>
       <c r="D3">
-        <v>0.01556594918666931</v>
+        <v>0.006983210171679133</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6754285872863051</v>
+        <v>0.5654755118877688</v>
       </c>
       <c r="G3">
-        <v>0.6038004522234104</v>
+        <v>0.4200445841948124</v>
       </c>
       <c r="H3">
-        <v>0.3696647878512636</v>
+        <v>0.5262639454938949</v>
       </c>
       <c r="I3">
-        <v>0.280300390983335</v>
+        <v>0.3834650222636355</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>2.402928764715938</v>
+        <v>0.7961706769635413</v>
       </c>
       <c r="N3">
-        <v>0.4815987079742128</v>
+        <v>0.9520463109238859</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.498805557548081</v>
+        <v>0.47088022357309</v>
       </c>
       <c r="C4">
-        <v>0.4622400762204393</v>
+        <v>0.1497728220114141</v>
       </c>
       <c r="D4">
-        <v>0.01465719476095018</v>
+        <v>0.006640299512572057</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6252242997933735</v>
+        <v>0.5554521569532014</v>
       </c>
       <c r="G4">
-        <v>0.5560692888488177</v>
+        <v>0.4099057404223885</v>
       </c>
       <c r="H4">
-        <v>0.3517952941531348</v>
+        <v>0.5245825432965887</v>
       </c>
       <c r="I4">
-        <v>0.2692466825318078</v>
+        <v>0.3831295463662308</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>2.153957217755007</v>
+        <v>0.7361304351839948</v>
       </c>
       <c r="N4">
-        <v>0.5087099615987563</v>
+        <v>0.9620990368732816</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.43753934077651</v>
+        <v>0.4522360348598795</v>
       </c>
       <c r="C5">
-        <v>0.4443271230685752</v>
+        <v>0.1441512032803018</v>
       </c>
       <c r="D5">
-        <v>0.01428554133783777</v>
+        <v>0.006499985187122803</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6051362694749258</v>
+        <v>0.5514845221674065</v>
       </c>
       <c r="G5">
-        <v>0.5369886919290394</v>
+        <v>0.4058725713139779</v>
       </c>
       <c r="H5">
-        <v>0.3447284799023294</v>
+        <v>0.5239853939000625</v>
       </c>
       <c r="I5">
-        <v>0.2649600450675713</v>
+        <v>0.3830704012086237</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>2.054373911504896</v>
+        <v>0.7117895922557977</v>
       </c>
       <c r="N5">
-        <v>0.5200390344407353</v>
+        <v>0.9663134124500177</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.427367840906498</v>
+        <v>0.4491392922036539</v>
       </c>
       <c r="C6">
-        <v>0.441353119215421</v>
+        <v>0.143216715827009</v>
       </c>
       <c r="D6">
-        <v>0.01422374911330593</v>
+        <v>0.006476651776218034</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6018219640449658</v>
+        <v>0.55083274851075</v>
       </c>
       <c r="G6">
-        <v>0.5338415836537109</v>
+        <v>0.4052087955579111</v>
       </c>
       <c r="H6">
-        <v>0.3435675163246117</v>
+        <v>0.5238915489160973</v>
       </c>
       <c r="I6">
-        <v>0.2642608791606129</v>
+        <v>0.3830652554024709</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>2.037941098040463</v>
+        <v>0.7077552495316013</v>
       </c>
       <c r="N6">
-        <v>0.5219368541851781</v>
+        <v>0.9670203147749374</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.4979791709506</v>
+        <v>0.4706288416657856</v>
       </c>
       <c r="C7">
-        <v>0.4619984619665729</v>
+        <v>0.1496970754812423</v>
       </c>
       <c r="D7">
-        <v>0.01465218785687838</v>
+        <v>0.006638409495362652</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6249519345143852</v>
+        <v>0.5553981751561068</v>
       </c>
       <c r="G7">
-        <v>0.5558105146139951</v>
+        <v>0.4098509498009264</v>
       </c>
       <c r="H7">
-        <v>0.3516991411324994</v>
+        <v>0.5245741337510736</v>
       </c>
       <c r="I7">
-        <v>0.2691880135654827</v>
+        <v>0.3831284350934077</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>2.152607084857493</v>
+        <v>0.7358016637125644</v>
       </c>
       <c r="N7">
-        <v>0.5088616269537352</v>
+        <v>0.96215539674232</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.80997977679931</v>
+        <v>0.5653226491328383</v>
       </c>
       <c r="C8">
-        <v>0.5532216156061338</v>
+        <v>0.1781441325703383</v>
       </c>
       <c r="D8">
-        <v>0.01653105476331262</v>
+        <v>0.007347119737339369</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7303774179895584</v>
+        <v>0.5765726496017578</v>
       </c>
       <c r="G8">
-        <v>0.6561153787144036</v>
+        <v>0.4312022548507031</v>
       </c>
       <c r="H8">
-        <v>0.3895207725177841</v>
+        <v>0.528359657053656</v>
       </c>
       <c r="I8">
-        <v>0.2928936692842541</v>
+        <v>0.3840890513946036</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2.676087382703443</v>
+        <v>0.8606872994964334</v>
       </c>
       <c r="N8">
-        <v>0.4536629399583567</v>
+        <v>0.9417224731295706</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.424926763159306</v>
+        <v>0.7504884749969847</v>
       </c>
       <c r="C9">
-        <v>0.7331319059543375</v>
+        <v>0.2333869869027012</v>
       </c>
       <c r="D9">
-        <v>0.02017133027649365</v>
+        <v>0.008717706346430987</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.951994639712467</v>
+        <v>0.6218295593177459</v>
       </c>
       <c r="G9">
-        <v>0.8678727553958794</v>
+        <v>0.4762346415377579</v>
       </c>
       <c r="H9">
-        <v>0.4719961609608987</v>
+        <v>0.5385777866914907</v>
       </c>
       <c r="I9">
-        <v>0.3478104139094853</v>
+        <v>0.3884459153649829</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>3.795303142098533</v>
+        <v>1.110050655036758</v>
       </c>
       <c r="N9">
-        <v>0.3552680832589681</v>
+        <v>0.9053884764408702</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.880276354363446</v>
+        <v>0.8861858402748908</v>
       </c>
       <c r="C10">
-        <v>0.8665255750464382</v>
+        <v>0.2736442262276739</v>
       </c>
       <c r="D10">
-        <v>0.02281642281407414</v>
+        <v>0.009712302459526256</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.126930350390154</v>
+        <v>0.6573972753243993</v>
       </c>
       <c r="G10">
-        <v>1.035874330024939</v>
+        <v>0.5112979798911965</v>
       </c>
       <c r="H10">
-        <v>0.539106073377198</v>
+        <v>0.5478049760166925</v>
       </c>
       <c r="I10">
-        <v>0.3947942985665094</v>
+        <v>0.3931769416572308</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>4.711720585543958</v>
+        <v>1.296407209555724</v>
       </c>
       <c r="N10">
-        <v>0.2899082338268477</v>
+        <v>0.880983851241484</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.088561243810261</v>
+        <v>0.947839609413279</v>
       </c>
       <c r="C11">
-        <v>0.9276043573237018</v>
+        <v>0.291887055360462</v>
       </c>
       <c r="D11">
-        <v>0.02401236206983626</v>
+        <v>0.01016194806390303</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.209933825326857</v>
+        <v>0.6740903465190655</v>
       </c>
       <c r="G11">
-        <v>1.115847473212909</v>
+        <v>0.5276897735240311</v>
       </c>
       <c r="H11">
-        <v>0.5714276612453375</v>
+        <v>0.5523797616332899</v>
       </c>
       <c r="I11">
-        <v>0.4180030683382583</v>
+        <v>0.3956663581971682</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>5.160751723743999</v>
+        <v>1.381965682450755</v>
       </c>
       <c r="N11">
-        <v>0.2619183131821334</v>
+        <v>0.8703816917035585</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.167625832539272</v>
+        <v>0.9711747867278291</v>
       </c>
       <c r="C12">
-        <v>0.9508006591891842</v>
+        <v>0.2987849564443081</v>
       </c>
       <c r="D12">
-        <v>0.02446403049490442</v>
+        <v>0.01033180120282751</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.2419349315294</v>
+        <v>0.6804860241310564</v>
       </c>
       <c r="G12">
-        <v>1.146725048581317</v>
+        <v>0.5339611955990051</v>
       </c>
       <c r="H12">
-        <v>0.5839617653186338</v>
+        <v>0.5541666329318673</v>
       </c>
       <c r="I12">
-        <v>0.4270947016894056</v>
+        <v>0.3966579149732965</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>5.336760355421347</v>
+        <v>1.414484900020369</v>
       </c>
       <c r="N12">
-        <v>0.2515932335466216</v>
+        <v>0.8664390598138541</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.150588930049025</v>
+        <v>0.966149676256407</v>
       </c>
       <c r="C13">
-        <v>0.9458017865028978</v>
+        <v>0.2972998286817585</v>
       </c>
       <c r="D13">
-        <v>0.02436681258655327</v>
+        <v>0.01029523911524421</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.235016232323318</v>
+        <v>0.6791052833691964</v>
       </c>
       <c r="G13">
-        <v>1.140047141016765</v>
+        <v>0.5326076651532219</v>
       </c>
       <c r="H13">
-        <v>0.5812485695950329</v>
+        <v>0.553779370422177</v>
       </c>
       <c r="I13">
-        <v>0.4251224873730877</v>
+        <v>0.3964421860638225</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>5.298562230067049</v>
+        <v>1.407475844966683</v>
       </c>
       <c r="N13">
-        <v>0.2538043240505468</v>
+        <v>0.8672849607517934</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.095061947598595</v>
+        <v>0.9497596494126128</v>
       </c>
       <c r="C14">
-        <v>0.9295113320742701</v>
+        <v>0.292454756311173</v>
       </c>
       <c r="D14">
-        <v>0.0240495464521473</v>
+        <v>0.01017593044502618</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.212554676850843</v>
+        <v>0.6746150288381614</v>
       </c>
       <c r="G14">
-        <v>1.118375369915185</v>
+        <v>0.5282044361267424</v>
       </c>
       <c r="H14">
-        <v>0.5724527133843083</v>
+        <v>0.5525256749499476</v>
       </c>
       <c r="I14">
-        <v>0.418744723114969</v>
+        <v>0.3957469526227015</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>5.175103201952354</v>
+        <v>1.384638608661703</v>
       </c>
       <c r="N14">
-        <v>0.2610632230318943</v>
+        <v>0.8700558805767979</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.06107578943346</v>
+        <v>0.9397187259386328</v>
       </c>
       <c r="C15">
-        <v>0.9195419789271853</v>
+        <v>0.2894856689567007</v>
       </c>
       <c r="D15">
-        <v>0.02385504869628363</v>
+        <v>0.01010279557286253</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.198872985188558</v>
+        <v>0.6718743213825462</v>
       </c>
       <c r="G15">
-        <v>1.105180775484882</v>
+        <v>0.5255157148933449</v>
       </c>
       <c r="H15">
-        <v>0.5671045561325627</v>
+        <v>0.5517648550104184</v>
       </c>
       <c r="I15">
-        <v>0.4148788854206984</v>
+        <v>0.3953274773286424</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>5.100305483748315</v>
+        <v>1.370666001517961</v>
       </c>
       <c r="N15">
-        <v>0.2655459569024412</v>
+        <v>0.8717625583271271</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.866689829414383</v>
+        <v>0.8821550232393065</v>
       </c>
       <c r="C16">
-        <v>0.8625427937839731</v>
+        <v>0.2724505860049362</v>
       </c>
       <c r="D16">
-        <v>0.02273810627470141</v>
+        <v>0.009682859401859645</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.121581106341068</v>
+        <v>0.6563167194590989</v>
       </c>
       <c r="G16">
-        <v>1.030726115815924</v>
+        <v>0.5102356815270923</v>
       </c>
       <c r="H16">
-        <v>0.5370328792199075</v>
+        <v>0.5475136159863609</v>
       </c>
       <c r="I16">
-        <v>0.3933176785960555</v>
+        <v>0.3930210705485564</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.683128558834454</v>
+        <v>1.290832161091984</v>
       </c>
       <c r="N16">
-        <v>0.291774444471109</v>
+        <v>0.8816868091128027</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.747753190182152</v>
+        <v>0.8468215485005999</v>
       </c>
       <c r="C17">
-        <v>0.8276846660269541</v>
+        <v>0.2619819857791867</v>
       </c>
       <c r="D17">
-        <v>0.02205093196855046</v>
+        <v>0.009424513935297085</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.07509334704848</v>
+        <v>0.6469044768821561</v>
       </c>
       <c r="G17">
-        <v>0.9860146259407543</v>
+        <v>0.5009754346023385</v>
       </c>
       <c r="H17">
-        <v>0.5190685742259973</v>
+        <v>0.5450024255298871</v>
       </c>
       <c r="I17">
-        <v>0.3805865342904724</v>
+        <v>0.3916928066438032</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>4.436278824193124</v>
+        <v>1.242062642584756</v>
       </c>
       <c r="N17">
-        <v>0.3083268481885733</v>
+        <v>0.8879032143755659</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.679450099936503</v>
+        <v>0.8264916015270387</v>
       </c>
       <c r="C18">
-        <v>0.8076720122026302</v>
+        <v>0.2559541066606243</v>
       </c>
       <c r="D18">
-        <v>0.02165501012961712</v>
+        <v>0.009275657690899664</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.048671905172284</v>
+        <v>0.6415390677567814</v>
       </c>
       <c r="G18">
-        <v>0.9606260846501442</v>
+        <v>0.4956906783613277</v>
       </c>
       <c r="H18">
-        <v>0.5089022477533973</v>
+        <v>0.5435935527959828</v>
       </c>
       <c r="I18">
-        <v>0.3734340233752036</v>
+        <v>0.3909605454099818</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>4.297223713087206</v>
+        <v>1.214085042677539</v>
       </c>
       <c r="N18">
-        <v>0.3180097956774401</v>
+        <v>0.8915257333154791</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.656341218754108</v>
+        <v>0.819607044207487</v>
       </c>
       <c r="C19">
-        <v>0.8009020825664948</v>
+        <v>0.2539120381368605</v>
       </c>
       <c r="D19">
-        <v>0.02152084511813612</v>
+        <v>0.009225212857000287</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.039778357551413</v>
+        <v>0.6397307040098354</v>
       </c>
       <c r="G19">
-        <v>0.9520840238977684</v>
+        <v>0.4939084544627832</v>
       </c>
       <c r="H19">
-        <v>0.5054876282807612</v>
+        <v>0.5431226220055692</v>
       </c>
       <c r="I19">
-        <v>0.3710404340385551</v>
+        <v>0.3907180511363393</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>4.250609734118839</v>
+        <v>1.204624682944939</v>
       </c>
       <c r="N19">
-        <v>0.321315509315687</v>
+        <v>0.892760319547139</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.760403013110704</v>
+        <v>0.8505835950462597</v>
       </c>
       <c r="C20">
-        <v>0.8313914884481903</v>
+        <v>0.263097072009856</v>
       </c>
       <c r="D20">
-        <v>0.02212415385494637</v>
+        <v>0.009452042556546303</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.08000871003911</v>
+        <v>0.6479014268208374</v>
       </c>
       <c r="G20">
-        <v>0.990739698824342</v>
+        <v>0.5019569039491074</v>
       </c>
       <c r="H20">
-        <v>0.5209634483656487</v>
+        <v>0.5452660704068251</v>
       </c>
       <c r="I20">
-        <v>0.3819239184792167</v>
+        <v>0.3918309169066205</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>4.462245016562832</v>
+        <v>1.247246598316224</v>
       </c>
       <c r="N20">
-        <v>0.3065478441188618</v>
+        <v>0.8872366000072107</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.11136616309966</v>
+        <v>0.9545741240294774</v>
       </c>
       <c r="C21">
-        <v>0.9342943369699128</v>
+        <v>0.2938781511487889</v>
       </c>
       <c r="D21">
-        <v>0.02414276957738792</v>
+        <v>0.01021098575439083</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.2191360489945</v>
+        <v>0.675931902272751</v>
       </c>
       <c r="G21">
-        <v>1.124724055840602</v>
+        <v>0.5294960227371348</v>
       </c>
       <c r="H21">
-        <v>0.5750279514717249</v>
+        <v>0.5528924346378119</v>
       </c>
       <c r="I21">
-        <v>0.4206094602675989</v>
+        <v>0.3959498302687905</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>5.211191268117432</v>
+        <v>1.391343140058154</v>
       </c>
       <c r="N21">
-        <v>0.2589234659126207</v>
+        <v>0.8692400327548135</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.341868221828918</v>
+        <v>1.022468947703885</v>
       </c>
       <c r="C22">
-        <v>1.001942258457177</v>
+        <v>0.3139354836115729</v>
       </c>
       <c r="D22">
-        <v>0.02545487951495318</v>
+        <v>0.01070455630564737</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.313428566481264</v>
+        <v>0.6946852202688802</v>
       </c>
       <c r="G22">
-        <v>1.215799187722098</v>
+        <v>0.5478690175251302</v>
       </c>
       <c r="H22">
-        <v>0.6121010994195331</v>
+        <v>0.5581944836504817</v>
       </c>
       <c r="I22">
-        <v>0.4476819886043586</v>
+        <v>0.3989267976860091</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>5.736432169948742</v>
+        <v>1.486222032108998</v>
       </c>
       <c r="N22">
-        <v>0.2294092241473159</v>
+        <v>0.8578990903072334</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.21873354384752</v>
+        <v>0.9862388093249024</v>
       </c>
       <c r="C23">
-        <v>0.9657981026875007</v>
+        <v>0.3032360333663462</v>
       </c>
       <c r="D23">
-        <v>0.0247553099486133</v>
+        <v>0.01044135686928271</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.262766148476288</v>
+        <v>0.6846363361216845</v>
       </c>
       <c r="G23">
-        <v>1.166838344435547</v>
+        <v>0.5380284817947256</v>
       </c>
       <c r="H23">
-        <v>0.592141596053267</v>
+        <v>0.5553355217757883</v>
       </c>
       <c r="I23">
-        <v>0.4330544157246692</v>
+        <v>0.3973117309848107</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>5.452266030129792</v>
+        <v>1.435516535055058</v>
       </c>
       <c r="N23">
-        <v>0.2450054631770305</v>
+        <v>0.863913345431091</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.754683796126869</v>
+        <v>0.8488828243860098</v>
       </c>
       <c r="C24">
-        <v>0.8297155483699612</v>
+        <v>0.2625929706105978</v>
       </c>
       <c r="D24">
-        <v>0.02209105289616886</v>
+        <v>0.009439597893635465</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.0777855301138</v>
+        <v>0.6474505630957879</v>
       </c>
       <c r="G24">
-        <v>0.9886025130589644</v>
+        <v>0.501513059978592</v>
       </c>
       <c r="H24">
-        <v>0.5201062751473557</v>
+        <v>0.5451467680449724</v>
       </c>
       <c r="I24">
-        <v>0.3813187704212879</v>
+        <v>0.3917683795577034</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4.450496881953427</v>
+        <v>1.244902743585072</v>
       </c>
       <c r="N24">
-        <v>0.3073516142040444</v>
+        <v>0.8875378249328403</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.258066341859944</v>
+        <v>0.7004550518394694</v>
       </c>
       <c r="C25">
-        <v>0.6842921374295656</v>
+        <v>0.2185002694737932</v>
       </c>
       <c r="D25">
-        <v>0.01919146692188889</v>
+        <v>0.008349051231949289</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.8901552856375901</v>
+        <v>0.6091823852605671</v>
       </c>
       <c r="G25">
-        <v>0.8086628340214759</v>
+        <v>0.4637084534734726</v>
       </c>
       <c r="H25">
-        <v>0.4486552802139272</v>
+        <v>0.5355126522094054</v>
       </c>
       <c r="I25">
-        <v>0.3319078738003682</v>
+        <v>0.3870002022819818</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>3.479229256033733</v>
+        <v>1.042069775666079</v>
       </c>
       <c r="N25">
-        <v>0.3807428046356849</v>
+        <v>0.9148166156228115</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_198/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_198/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5909449888591212</v>
+        <v>1.894667724900643</v>
       </c>
       <c r="C2">
-        <v>0.1858151788494524</v>
+        <v>0.5779864864499302</v>
       </c>
       <c r="D2">
-        <v>0.007537871369759586</v>
+        <v>0.01703720677623366</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5825610311031255</v>
+        <v>0.7598479994851886</v>
       </c>
       <c r="G2">
-        <v>0.4371995582342123</v>
+        <v>0.6842045740458929</v>
       </c>
       <c r="H2">
-        <v>0.5295738793486322</v>
+        <v>0.4002824521681134</v>
       </c>
       <c r="I2">
-        <v>0.3845158688133452</v>
+        <v>0.2998377044467944</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,10 +454,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.8948114962484226</v>
+        <v>2.823073750792204</v>
       </c>
       <c r="N2">
-        <v>0.9364384619600088</v>
+        <v>0.4393426266164275</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.51659482688612</v>
+        <v>1.649245667310197</v>
       </c>
       <c r="C3">
-        <v>0.1635262707360425</v>
+        <v>0.5062245303281543</v>
       </c>
       <c r="D3">
-        <v>0.006983210171679133</v>
+        <v>0.01556594918649878</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5654755118877688</v>
+        <v>0.6754285872863051</v>
       </c>
       <c r="G3">
-        <v>0.4200445841948124</v>
+        <v>0.6038004522233962</v>
       </c>
       <c r="H3">
-        <v>0.5262639454938949</v>
+        <v>0.3696647878511499</v>
       </c>
       <c r="I3">
-        <v>0.3834650222636355</v>
+        <v>0.2803003909833492</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,10 +501,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.7961706769635413</v>
+        <v>2.402928764715924</v>
       </c>
       <c r="N3">
-        <v>0.9520463109238859</v>
+        <v>0.4815987079742174</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.47088022357309</v>
+        <v>1.498805557548195</v>
       </c>
       <c r="C4">
-        <v>0.1497728220114141</v>
+        <v>0.4622400762201551</v>
       </c>
       <c r="D4">
-        <v>0.006640299512572057</v>
+        <v>0.01465719476100702</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5554521569532014</v>
+        <v>0.6252242997933735</v>
       </c>
       <c r="G4">
-        <v>0.4099057404223885</v>
+        <v>0.5560692888488461</v>
       </c>
       <c r="H4">
-        <v>0.5245825432965887</v>
+        <v>0.3517952941531348</v>
       </c>
       <c r="I4">
-        <v>0.3831295463662308</v>
+        <v>0.2692466825318007</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,10 +548,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7361304351839948</v>
+        <v>2.153957217755035</v>
       </c>
       <c r="N4">
-        <v>0.9620990368732816</v>
+        <v>0.5087099615987427</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4522360348598795</v>
+        <v>1.437539340776397</v>
       </c>
       <c r="C5">
-        <v>0.1441512032803018</v>
+        <v>0.4443271230686037</v>
       </c>
       <c r="D5">
-        <v>0.006499985187122803</v>
+        <v>0.01428554133777737</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5514845221674065</v>
+        <v>0.6051362694749258</v>
       </c>
       <c r="G5">
-        <v>0.4058725713139779</v>
+        <v>0.5369886919290394</v>
       </c>
       <c r="H5">
-        <v>0.5239853939000625</v>
+        <v>0.3447284799024288</v>
       </c>
       <c r="I5">
-        <v>0.3830704012086237</v>
+        <v>0.2649600450675713</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7117895922557977</v>
+        <v>2.054373911504911</v>
       </c>
       <c r="N5">
-        <v>0.9663134124500177</v>
+        <v>0.5200390344407206</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4491392922036539</v>
+        <v>1.427367840906498</v>
       </c>
       <c r="C6">
-        <v>0.143216715827009</v>
+        <v>0.4413531192151936</v>
       </c>
       <c r="D6">
-        <v>0.006476651776218034</v>
+        <v>0.01422374911307855</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.55083274851075</v>
+        <v>0.60182196404498</v>
       </c>
       <c r="G6">
-        <v>0.4052087955579111</v>
+        <v>0.5338415836536825</v>
       </c>
       <c r="H6">
-        <v>0.5238915489160973</v>
+        <v>0.3435675163246117</v>
       </c>
       <c r="I6">
-        <v>0.3830652554024709</v>
+        <v>0.2642608791606271</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,10 +642,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7077552495316013</v>
+        <v>2.037941098040434</v>
       </c>
       <c r="N6">
-        <v>0.9670203147749374</v>
+        <v>0.5219368541852205</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4706288416657856</v>
+        <v>1.497979170950572</v>
       </c>
       <c r="C7">
-        <v>0.1496970754812423</v>
+        <v>0.4619984619660329</v>
       </c>
       <c r="D7">
-        <v>0.006638409495362652</v>
+        <v>0.01465218785692457</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5553981751561068</v>
+        <v>0.6249519345143995</v>
       </c>
       <c r="G7">
-        <v>0.4098509498009264</v>
+        <v>0.5558105146139383</v>
       </c>
       <c r="H7">
-        <v>0.5245741337510736</v>
+        <v>0.3516991411324142</v>
       </c>
       <c r="I7">
-        <v>0.3831284350934077</v>
+        <v>0.2691880135654827</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,10 +689,10 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7358016637125644</v>
+        <v>2.152607084857493</v>
       </c>
       <c r="N7">
-        <v>0.96215539674232</v>
+        <v>0.5088616269537294</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5653226491328383</v>
+        <v>1.809979776799281</v>
       </c>
       <c r="C8">
-        <v>0.1781441325703383</v>
+        <v>0.5532216156062475</v>
       </c>
       <c r="D8">
-        <v>0.007347119737339369</v>
+        <v>0.01653105476320249</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5765726496017578</v>
+        <v>0.7303774179895584</v>
       </c>
       <c r="G8">
-        <v>0.4312022548507031</v>
+        <v>0.656115378714361</v>
       </c>
       <c r="H8">
-        <v>0.528359657053656</v>
+        <v>0.3895207725177698</v>
       </c>
       <c r="I8">
-        <v>0.3840890513946036</v>
+        <v>0.2928936692842541</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,10 +736,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.8606872994964334</v>
+        <v>2.676087382703443</v>
       </c>
       <c r="N8">
-        <v>0.9417224731295706</v>
+        <v>0.4536629399582901</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7504884749969847</v>
+        <v>2.424926763159135</v>
       </c>
       <c r="C9">
-        <v>0.2333869869027012</v>
+        <v>0.7331319059542523</v>
       </c>
       <c r="D9">
-        <v>0.008717706346430987</v>
+        <v>0.02017133027671747</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6218295593177459</v>
+        <v>0.951994639712467</v>
       </c>
       <c r="G9">
-        <v>0.4762346415377579</v>
+        <v>0.8678727553957799</v>
       </c>
       <c r="H9">
-        <v>0.5385777866914907</v>
+        <v>0.4719961609609129</v>
       </c>
       <c r="I9">
-        <v>0.3884459153649829</v>
+        <v>0.3478104139094853</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.110050655036758</v>
+        <v>3.795303142098533</v>
       </c>
       <c r="N9">
-        <v>0.9053884764408702</v>
+        <v>0.3552680832589765</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8861858402748908</v>
+        <v>2.880276354363275</v>
       </c>
       <c r="C10">
-        <v>0.2736442262276739</v>
+        <v>0.8665255750464098</v>
       </c>
       <c r="D10">
-        <v>0.009712302459526256</v>
+        <v>0.02281642281414165</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.6573972753243993</v>
+        <v>1.126930350390182</v>
       </c>
       <c r="G10">
-        <v>0.5112979798911965</v>
+        <v>1.03587433002491</v>
       </c>
       <c r="H10">
-        <v>0.5478049760166925</v>
+        <v>0.5391060733771837</v>
       </c>
       <c r="I10">
-        <v>0.3931769416572308</v>
+        <v>0.3947942985665023</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.296407209555724</v>
+        <v>4.711720585543972</v>
       </c>
       <c r="N10">
-        <v>0.880983851241484</v>
+        <v>0.2899082338268415</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.947839609413279</v>
+        <v>3.088561243810375</v>
       </c>
       <c r="C11">
-        <v>0.291887055360462</v>
+        <v>0.9276043573238439</v>
       </c>
       <c r="D11">
-        <v>0.01016194806390303</v>
+        <v>0.02401236206957336</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.6740903465190655</v>
+        <v>1.209933825326857</v>
       </c>
       <c r="G11">
-        <v>0.5276897735240311</v>
+        <v>1.115847473213023</v>
       </c>
       <c r="H11">
-        <v>0.5523797616332899</v>
+        <v>0.5714276612453375</v>
       </c>
       <c r="I11">
-        <v>0.3956663581971682</v>
+        <v>0.4180030683382512</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.381965682450755</v>
+        <v>5.160751723744013</v>
       </c>
       <c r="N11">
-        <v>0.8703816917035585</v>
+        <v>0.2619183131821219</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9711747867278291</v>
+        <v>3.167625832539443</v>
       </c>
       <c r="C12">
-        <v>0.2987849564443081</v>
+        <v>0.95080065918944</v>
       </c>
       <c r="D12">
-        <v>0.01033180120282751</v>
+        <v>0.02446403049471613</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.6804860241310564</v>
+        <v>1.2419349315294</v>
       </c>
       <c r="G12">
-        <v>0.5339611955990051</v>
+        <v>1.146725048581288</v>
       </c>
       <c r="H12">
-        <v>0.5541666329318673</v>
+        <v>0.5839617653186053</v>
       </c>
       <c r="I12">
-        <v>0.3966579149732965</v>
+        <v>0.4270947016894198</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,10 +924,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.414484900020369</v>
+        <v>5.336760355421305</v>
       </c>
       <c r="N12">
-        <v>0.8664390598138541</v>
+        <v>0.2515932335465616</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.966149676256407</v>
+        <v>3.150588930048968</v>
       </c>
       <c r="C13">
-        <v>0.2972998286817585</v>
+        <v>0.9458017865027841</v>
       </c>
       <c r="D13">
-        <v>0.01029523911524421</v>
+        <v>0.02436681258665629</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6791052833691964</v>
+        <v>1.235016232323346</v>
       </c>
       <c r="G13">
-        <v>0.5326076651532219</v>
+        <v>1.140047141016794</v>
       </c>
       <c r="H13">
-        <v>0.553779370422177</v>
+        <v>0.5812485695950613</v>
       </c>
       <c r="I13">
-        <v>0.3964421860638225</v>
+        <v>0.4251224873730735</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,10 +971,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.407475844966683</v>
+        <v>5.298562230067049</v>
       </c>
       <c r="N13">
-        <v>0.8672849607517934</v>
+        <v>0.2538043240505836</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9497596494126128</v>
+        <v>3.095061947598595</v>
       </c>
       <c r="C14">
-        <v>0.292454756311173</v>
+        <v>0.9295113320740143</v>
       </c>
       <c r="D14">
-        <v>0.01017593044502618</v>
+        <v>0.02404954645226098</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6746150288381614</v>
+        <v>1.212554676850843</v>
       </c>
       <c r="G14">
-        <v>0.5282044361267424</v>
+        <v>1.118375369915157</v>
       </c>
       <c r="H14">
-        <v>0.5525256749499476</v>
+        <v>0.5724527133843083</v>
       </c>
       <c r="I14">
-        <v>0.3957469526227015</v>
+        <v>0.4187447231149832</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.384638608661703</v>
+        <v>5.175103201952354</v>
       </c>
       <c r="N14">
-        <v>0.8700558805767979</v>
+        <v>0.2610632230318892</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9397187259386328</v>
+        <v>3.061075789433403</v>
       </c>
       <c r="C15">
-        <v>0.2894856689567007</v>
+        <v>0.9195419789271</v>
       </c>
       <c r="D15">
-        <v>0.01010279557286253</v>
+        <v>0.02385504869628363</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6718743213825462</v>
+        <v>1.198872985188558</v>
       </c>
       <c r="G15">
-        <v>0.5255157148933449</v>
+        <v>1.105180775484854</v>
       </c>
       <c r="H15">
-        <v>0.5517648550104184</v>
+        <v>0.567104556132449</v>
       </c>
       <c r="I15">
-        <v>0.3953274773286424</v>
+        <v>0.4148788854206984</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.370666001517961</v>
+        <v>5.100305483748286</v>
       </c>
       <c r="N15">
-        <v>0.8717625583271271</v>
+        <v>0.2655459569023813</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.8821550232393065</v>
+        <v>2.86668982941427</v>
       </c>
       <c r="C16">
-        <v>0.2724505860049362</v>
+        <v>0.8625427937841437</v>
       </c>
       <c r="D16">
-        <v>0.009682859401859645</v>
+        <v>0.0227381062748826</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6563167194590989</v>
+        <v>1.121581106341054</v>
       </c>
       <c r="G16">
-        <v>0.5102356815270923</v>
+        <v>1.030726115815952</v>
       </c>
       <c r="H16">
-        <v>0.5475136159863609</v>
+        <v>0.5370328792199075</v>
       </c>
       <c r="I16">
-        <v>0.3930210705485564</v>
+        <v>0.3933176785960484</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.290832161091984</v>
+        <v>4.683128558834468</v>
       </c>
       <c r="N16">
-        <v>0.8816868091128027</v>
+        <v>0.2917744444711061</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8468215485005999</v>
+        <v>2.747753190182038</v>
       </c>
       <c r="C17">
-        <v>0.2619819857791867</v>
+        <v>0.8276846660265562</v>
       </c>
       <c r="D17">
-        <v>0.009424513935297085</v>
+        <v>0.02205093196855401</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6469044768821561</v>
+        <v>1.07509334704848</v>
       </c>
       <c r="G17">
-        <v>0.5009754346023385</v>
+        <v>0.9860146259407401</v>
       </c>
       <c r="H17">
-        <v>0.5450024255298871</v>
+        <v>0.5190685742260968</v>
       </c>
       <c r="I17">
-        <v>0.3916928066438032</v>
+        <v>0.380586534290444</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,10 +1159,10 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.242062642584756</v>
+        <v>4.436278824193096</v>
       </c>
       <c r="N17">
-        <v>0.8879032143755659</v>
+        <v>0.3083268481885648</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8264916015270387</v>
+        <v>2.679450099936616</v>
       </c>
       <c r="C18">
-        <v>0.2559541066606243</v>
+        <v>0.8076720122030849</v>
       </c>
       <c r="D18">
-        <v>0.009275657690899664</v>
+        <v>0.02165501012960647</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6415390677567814</v>
+        <v>1.048671905172299</v>
       </c>
       <c r="G18">
-        <v>0.4956906783613277</v>
+        <v>0.9606260846501016</v>
       </c>
       <c r="H18">
-        <v>0.5435935527959828</v>
+        <v>0.5089022477534257</v>
       </c>
       <c r="I18">
-        <v>0.3909605454099818</v>
+        <v>0.3734340233752036</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,10 +1206,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.214085042677539</v>
+        <v>4.297223713087206</v>
       </c>
       <c r="N18">
-        <v>0.8915257333154791</v>
+        <v>0.3180097956774299</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.819607044207487</v>
+        <v>2.656341218754164</v>
       </c>
       <c r="C19">
-        <v>0.2539120381368605</v>
+        <v>0.8009020825663811</v>
       </c>
       <c r="D19">
-        <v>0.009225212857000287</v>
+        <v>0.02152084511831731</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.6397307040098354</v>
+        <v>1.039778357551427</v>
       </c>
       <c r="G19">
-        <v>0.4939084544627832</v>
+        <v>0.9520840238977826</v>
       </c>
       <c r="H19">
-        <v>0.5431226220055692</v>
+        <v>0.5054876282808749</v>
       </c>
       <c r="I19">
-        <v>0.3907180511363393</v>
+        <v>0.3710404340385622</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.204624682944939</v>
+        <v>4.250609734118811</v>
       </c>
       <c r="N19">
-        <v>0.892760319547139</v>
+        <v>0.3213155093156803</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8505835950462597</v>
+        <v>2.760403013110931</v>
       </c>
       <c r="C20">
-        <v>0.263097072009856</v>
+        <v>0.8313914884481619</v>
       </c>
       <c r="D20">
-        <v>0.009452042556546303</v>
+        <v>0.02212415385483268</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.6479014268208374</v>
+        <v>1.08000871003911</v>
       </c>
       <c r="G20">
-        <v>0.5019569039491074</v>
+        <v>0.9907396988243136</v>
       </c>
       <c r="H20">
-        <v>0.5452660704068251</v>
+        <v>0.520963448365535</v>
       </c>
       <c r="I20">
-        <v>0.3918309169066205</v>
+        <v>0.3819239184792025</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.247246598316224</v>
+        <v>4.462245016562804</v>
       </c>
       <c r="N20">
-        <v>0.8872366000072107</v>
+        <v>0.3065478441188625</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9545741240294774</v>
+        <v>3.111366163099547</v>
       </c>
       <c r="C21">
-        <v>0.2938781511487889</v>
+        <v>0.9342943369699412</v>
       </c>
       <c r="D21">
-        <v>0.01021098575439083</v>
+        <v>0.02414276957734884</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.675931902272751</v>
+        <v>1.219136048994471</v>
       </c>
       <c r="G21">
-        <v>0.5294960227371348</v>
+        <v>1.124724055840545</v>
       </c>
       <c r="H21">
-        <v>0.5528924346378119</v>
+        <v>0.5750279514717249</v>
       </c>
       <c r="I21">
-        <v>0.3959498302687905</v>
+        <v>0.4206094602675847</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.391343140058154</v>
+        <v>5.211191268117446</v>
       </c>
       <c r="N21">
-        <v>0.8692400327548135</v>
+        <v>0.2589234659126207</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.022468947703885</v>
+        <v>3.341868221828918</v>
       </c>
       <c r="C22">
-        <v>0.3139354836115729</v>
+        <v>1.001942258457063</v>
       </c>
       <c r="D22">
-        <v>0.01070455630564737</v>
+        <v>0.02545487951514502</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.6946852202688802</v>
+        <v>1.313428566481264</v>
       </c>
       <c r="G22">
-        <v>0.5478690175251302</v>
+        <v>1.215799187722098</v>
       </c>
       <c r="H22">
-        <v>0.5581944836504817</v>
+        <v>0.6121010994197604</v>
       </c>
       <c r="I22">
-        <v>0.3989267976860091</v>
+        <v>0.4476819886043728</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.486222032108998</v>
+        <v>5.736432169948728</v>
       </c>
       <c r="N22">
-        <v>0.8578990903072334</v>
+        <v>0.2294092241472575</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.9862388093249024</v>
+        <v>3.218733543847691</v>
       </c>
       <c r="C23">
-        <v>0.3032360333663462</v>
+        <v>0.9657981026875859</v>
       </c>
       <c r="D23">
-        <v>0.01044135686928271</v>
+        <v>0.02475530994872344</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.6846363361216845</v>
+        <v>1.262766148476288</v>
       </c>
       <c r="G23">
-        <v>0.5380284817947256</v>
+        <v>1.166838344435604</v>
       </c>
       <c r="H23">
-        <v>0.5553355217757883</v>
+        <v>0.5921415960531533</v>
       </c>
       <c r="I23">
-        <v>0.3973117309848107</v>
+        <v>0.4330544157246763</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,10 +1441,10 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.435516535055058</v>
+        <v>5.452266030129749</v>
       </c>
       <c r="N23">
-        <v>0.863913345431091</v>
+        <v>0.2450054631770312</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8488828243860098</v>
+        <v>2.754683796126869</v>
       </c>
       <c r="C24">
-        <v>0.2625929706105978</v>
+        <v>0.8297155483699328</v>
       </c>
       <c r="D24">
-        <v>0.009439597893635465</v>
+        <v>0.02209105289639268</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.6474505630957879</v>
+        <v>1.0777855301138</v>
       </c>
       <c r="G24">
-        <v>0.501513059978592</v>
+        <v>0.9886025130588934</v>
       </c>
       <c r="H24">
-        <v>0.5451467680449724</v>
+        <v>0.5201062751472278</v>
       </c>
       <c r="I24">
-        <v>0.3917683795577034</v>
+        <v>0.3813187704212666</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,10 +1488,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.244902743585072</v>
+        <v>4.450496881953441</v>
       </c>
       <c r="N24">
-        <v>0.8875378249328403</v>
+        <v>0.3073516142040484</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7004550518394694</v>
+        <v>2.258066341859831</v>
       </c>
       <c r="C25">
-        <v>0.2185002694737932</v>
+        <v>0.684292137429594</v>
       </c>
       <c r="D25">
-        <v>0.008349051231949289</v>
+        <v>0.01919146692188534</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6091823852605671</v>
+        <v>0.8901552856375901</v>
       </c>
       <c r="G25">
-        <v>0.4637084534734726</v>
+        <v>0.8086628340214617</v>
       </c>
       <c r="H25">
-        <v>0.5355126522094054</v>
+        <v>0.4486552802139414</v>
       </c>
       <c r="I25">
-        <v>0.3870002022819818</v>
+        <v>0.3319078738003824</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.042069775666079</v>
+        <v>3.479229256033733</v>
       </c>
       <c r="N25">
-        <v>0.9148166156228115</v>
+        <v>0.3807428046356713</v>
       </c>
       <c r="O25">
         <v>0</v>
